--- a/commodity2.xlsx
+++ b/commodity2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\minihabits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8B8D378-BDF3-487A-85EC-45D894168675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF4E358-7E29-4A80-AB14-A2E33050D279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,10 +140,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>iPad Air 13 128</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>3600</t>
     </r>
@@ -157,6 +153,10 @@
       </rPr>
       <t>，政府补贴20%</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>iPad Air 13inch 128</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -514,7 +514,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -699,7 +699,7 @@
         <v>4500</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>8</v>
@@ -707,7 +707,7 @@
     </row>
     <row r="14" spans="1:6" ht="18.600000000000001" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" s="1">
         <v>5366</v>
